--- a/Code/Results/Cases/Case_1_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.676387420486719</v>
+        <v>0.9927999675585966</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09651890252491846</v>
+        <v>0.2798731287734992</v>
       </c>
       <c r="E2">
-        <v>0.1100608003779993</v>
+        <v>0.2308497643358756</v>
       </c>
       <c r="F2">
-        <v>0.5646536972306464</v>
+        <v>0.9456097004347441</v>
       </c>
       <c r="G2">
-        <v>0.4537620120636916</v>
+        <v>0.447322835736145</v>
       </c>
       <c r="H2">
-        <v>0.3008208197187656</v>
+        <v>0.5737145539869601</v>
       </c>
       <c r="I2">
-        <v>0.2334979530466632</v>
+        <v>0.7240609942466598</v>
       </c>
       <c r="J2">
-        <v>0.1731028297158232</v>
+        <v>0.2588174211701926</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8685644540454689</v>
+        <v>0.3734397509095402</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.334834185699563</v>
+        <v>1.396665933390068</v>
       </c>
       <c r="O2">
-        <v>1.542960165882334</v>
+        <v>1.995591510310362</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.465511856430368</v>
+        <v>0.9294340059196031</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09906067279239394</v>
+        <v>0.2819548258911855</v>
       </c>
       <c r="E3">
-        <v>0.1105411082286096</v>
+        <v>0.2318011573563368</v>
       </c>
       <c r="F3">
-        <v>0.5271197944096215</v>
+        <v>0.9438628670045546</v>
       </c>
       <c r="G3">
-        <v>0.4064642545169619</v>
+        <v>0.4387955422283625</v>
       </c>
       <c r="H3">
-        <v>0.2835741904708016</v>
+        <v>0.5733800915866851</v>
       </c>
       <c r="I3">
-        <v>0.2514833789260964</v>
+        <v>0.7353335356100101</v>
       </c>
       <c r="J3">
-        <v>0.168569789932171</v>
+        <v>0.2580107726554104</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.756442220602338</v>
+        <v>0.3391230218221608</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.28322455545414</v>
+        <v>1.383195247513143</v>
       </c>
       <c r="O3">
-        <v>1.40623395197386</v>
+        <v>1.976524758828361</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.336072897926954</v>
+        <v>0.8906315630160009</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1007204661188617</v>
+        <v>0.2833116060989109</v>
       </c>
       <c r="E4">
-        <v>0.1109036660211942</v>
+        <v>0.2324406609767831</v>
       </c>
       <c r="F4">
-        <v>0.505082664284572</v>
+        <v>0.9433451313041274</v>
       </c>
       <c r="G4">
-        <v>0.3781513843645996</v>
+        <v>0.4338788003849459</v>
       </c>
       <c r="H4">
-        <v>0.2734560979164229</v>
+        <v>0.5734558444510327</v>
       </c>
       <c r="I4">
-        <v>0.2631945950177026</v>
+        <v>0.7426503674489262</v>
       </c>
       <c r="J4">
-        <v>0.1658417832556722</v>
+        <v>0.25756497529256</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.687571808973928</v>
+        <v>0.3180450271966038</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.252455398523225</v>
+        <v>1.375397648533379</v>
       </c>
       <c r="O4">
-        <v>1.324803374259602</v>
+        <v>1.966071819552155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.283326924497231</v>
+        <v>0.8748470234240244</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1014215355762467</v>
+        <v>0.2838843084449731</v>
       </c>
       <c r="E5">
-        <v>0.1110684586856934</v>
+        <v>0.2327152342278378</v>
       </c>
       <c r="F5">
-        <v>0.4963422758333138</v>
+        <v>0.9432737251244703</v>
       </c>
       <c r="G5">
-        <v>0.3667834049718408</v>
+        <v>0.4319553854449794</v>
       </c>
       <c r="H5">
-        <v>0.2694454126127681</v>
+        <v>0.5735574789222113</v>
       </c>
       <c r="I5">
-        <v>0.2681303205962893</v>
+        <v>0.7457314432994799</v>
       </c>
       <c r="J5">
-        <v>0.1647441897122306</v>
+        <v>0.2573958593714778</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.65949482549604</v>
+        <v>0.3094544261978314</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.24014103634434</v>
+        <v>1.372339894895632</v>
       </c>
       <c r="O5">
-        <v>1.292212469754929</v>
+        <v>1.962127608151036</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.274568347290085</v>
+        <v>0.8722277338304423</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1015394320233045</v>
+        <v>0.2839806023770231</v>
       </c>
       <c r="E6">
-        <v>0.1110968531005394</v>
+        <v>0.2327616722542221</v>
       </c>
       <c r="F6">
-        <v>0.4949050408013775</v>
+        <v>0.9432702999396554</v>
       </c>
       <c r="G6">
-        <v>0.3649056341163686</v>
+        <v>0.4316408466794002</v>
       </c>
       <c r="H6">
-        <v>0.2687860666008532</v>
+        <v>0.5735786314959483</v>
       </c>
       <c r="I6">
-        <v>0.2689596235472047</v>
+        <v>0.7462490566679338</v>
       </c>
       <c r="J6">
-        <v>0.1645627917371506</v>
+        <v>0.2573685389140365</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6548318170141414</v>
+        <v>0.3080279150616008</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.23810960105628</v>
+        <v>1.371839417710348</v>
       </c>
       <c r="O6">
-        <v>1.286835412909483</v>
+        <v>1.961491729591046</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335361552176664</v>
+        <v>0.89041857277644</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1007298213257646</v>
+        <v>0.2833192495302077</v>
       </c>
       <c r="E7">
-        <v>0.1109058193983348</v>
+        <v>0.2324443073308302</v>
       </c>
       <c r="F7">
-        <v>0.5049638346614884</v>
+        <v>0.9433436030820701</v>
       </c>
       <c r="G7">
-        <v>0.3779974017278533</v>
+        <v>0.4338525358641903</v>
       </c>
       <c r="H7">
-        <v>0.273401560575067</v>
+        <v>0.5734569285056494</v>
       </c>
       <c r="I7">
-        <v>0.2632605047775531</v>
+        <v>0.7426915174583375</v>
       </c>
       <c r="J7">
-        <v>0.1658269234210437</v>
+        <v>0.2575626435799734</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6871932067613216</v>
+        <v>0.3179291750505513</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.252288423250931</v>
+        <v>1.375355924370851</v>
       </c>
       <c r="O7">
-        <v>1.324361494745148</v>
+        <v>1.966017349196562</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.603663981166193</v>
+        <v>0.9709305649010957</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09737458376732855</v>
+        <v>0.2805746044530726</v>
       </c>
       <c r="E8">
-        <v>0.110212392314919</v>
+        <v>0.2311663499520424</v>
       </c>
       <c r="F8">
-        <v>0.5514941417489609</v>
+        <v>0.9448922705266725</v>
       </c>
       <c r="G8">
-        <v>0.4372943768700139</v>
+        <v>0.4443163837538435</v>
       </c>
       <c r="H8">
-        <v>0.2947726251052956</v>
+        <v>0.5735409302397727</v>
       </c>
       <c r="I8">
-        <v>0.2395577986984376</v>
+        <v>0.7278656746287679</v>
       </c>
       <c r="J8">
-        <v>0.1715284696950121</v>
+        <v>0.2585290804543305</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8299071588399158</v>
+        <v>0.3616092902963999</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.316844102493832</v>
+        <v>1.391923431951057</v>
       </c>
       <c r="O8">
-        <v>1.495268706062689</v>
+        <v>1.988757041875687</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.130555720012012</v>
+        <v>1.129586050619935</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09159256039200692</v>
+        <v>0.2758144296071663</v>
       </c>
       <c r="E9">
-        <v>0.1093878295942119</v>
+        <v>0.2290970707473754</v>
       </c>
       <c r="F9">
-        <v>0.6514000363201546</v>
+        <v>0.9523304038490465</v>
       </c>
       <c r="G9">
-        <v>0.5599916267638037</v>
+        <v>0.4673706183385775</v>
       </c>
       <c r="H9">
-        <v>0.3407095296502121</v>
+        <v>0.5759335330992883</v>
       </c>
       <c r="I9">
-        <v>0.19859529634605</v>
+        <v>0.701930862926011</v>
       </c>
       <c r="J9">
-        <v>0.1831405630217162</v>
+        <v>0.260812476012191</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.109811388295526</v>
+        <v>0.4471801951866894</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.451068571101459</v>
+        <v>1.4281378078811</v>
       </c>
       <c r="O9">
-        <v>1.852368452922832</v>
+        <v>2.043301883918474</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.518813279239055</v>
+        <v>1.246554971967669</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08784639518046955</v>
+        <v>0.2726940099349813</v>
       </c>
       <c r="E10">
-        <v>0.1091065242535532</v>
+        <v>0.2278399150169239</v>
       </c>
       <c r="F10">
-        <v>0.7310451899220567</v>
+        <v>0.9604790488143635</v>
       </c>
       <c r="G10">
-        <v>0.6549926889013733</v>
+        <v>0.4858606267062555</v>
       </c>
       <c r="H10">
-        <v>0.3773408175537867</v>
+        <v>0.5790470482687056</v>
       </c>
       <c r="I10">
-        <v>0.1721757092742573</v>
+        <v>0.6847905990310901</v>
       </c>
       <c r="J10">
-        <v>0.1919262349580038</v>
+        <v>0.2627210711812964</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.315887741053388</v>
+        <v>0.5099665630676498</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.554841431589224</v>
+        <v>1.456978274113069</v>
       </c>
       <c r="O10">
-        <v>2.131005118157105</v>
+        <v>2.089453006822907</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.695859787285372</v>
+        <v>1.299841844120579</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08625476477329652</v>
+        <v>0.2713557857629691</v>
       </c>
       <c r="E11">
-        <v>0.1090486744341508</v>
+        <v>0.2273244802582877</v>
       </c>
       <c r="F11">
-        <v>0.7688611414309321</v>
+        <v>0.9647691466894912</v>
       </c>
       <c r="G11">
-        <v>0.6994888945736619</v>
+        <v>0.494610831130359</v>
       </c>
       <c r="H11">
-        <v>0.3947318660754178</v>
+        <v>0.5807573761859572</v>
       </c>
       <c r="I11">
-        <v>0.1610267558719896</v>
+        <v>0.6774087853666346</v>
       </c>
       <c r="J11">
-        <v>0.1959765760426961</v>
+        <v>0.2636383133793387</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.409830035793476</v>
+        <v>0.538505707629497</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.603290486630868</v>
+        <v>1.470576038623847</v>
       </c>
       <c r="O11">
-        <v>2.261983311419613</v>
+        <v>2.111770454884123</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.76297829159023</v>
+        <v>1.320029924964103</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08566855968068321</v>
+        <v>0.2708606842800876</v>
       </c>
       <c r="E12">
-        <v>0.1090368237238195</v>
+        <v>0.2271373623671646</v>
       </c>
       <c r="F12">
-        <v>0.7834290699641286</v>
+        <v>0.9664775417684126</v>
       </c>
       <c r="G12">
-        <v>0.7165422615103694</v>
+        <v>0.4979731264065919</v>
       </c>
       <c r="H12">
-        <v>0.4014309309004744</v>
+        <v>0.5814472473576444</v>
       </c>
       <c r="I12">
-        <v>0.1569363286995009</v>
+        <v>0.6746732473708486</v>
       </c>
       <c r="J12">
-        <v>0.1975179005927146</v>
+        <v>0.2639925933031293</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.445440469382561</v>
+        <v>0.5493088312670125</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.621825929482753</v>
+        <v>1.475793205727939</v>
       </c>
       <c r="O12">
-        <v>2.312249579966419</v>
+        <v>2.120411784877319</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.748519565277775</v>
+        <v>1.315681663374789</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08579406965759073</v>
+        <v>0.2709667953869577</v>
       </c>
       <c r="E13">
-        <v>0.109038929152403</v>
+        <v>0.2271773036323488</v>
       </c>
       <c r="F13">
-        <v>0.7802802515798817</v>
+        <v>0.9661058807106429</v>
       </c>
       <c r="G13">
-        <v>0.712860131569272</v>
+        <v>0.4972468258131784</v>
       </c>
       <c r="H13">
-        <v>0.3999829739277914</v>
+        <v>0.5812967951391386</v>
       </c>
       <c r="I13">
-        <v>0.1578113239099852</v>
+        <v>0.6752597340259876</v>
       </c>
       <c r="J13">
-        <v>0.1971856157421144</v>
+        <v>0.2639159858268201</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.437769362990906</v>
+        <v>0.5469823768006563</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.617825422526096</v>
+        <v>1.474666583651242</v>
       </c>
       <c r="O13">
-        <v>2.30139314383328</v>
+        <v>2.1185422617923</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.701380085813355</v>
+        <v>1.301502548411861</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08620620446884342</v>
+        <v>0.2713148200637967</v>
       </c>
       <c r="E14">
-        <v>0.1090474980809049</v>
+        <v>0.2273089245957358</v>
       </c>
       <c r="F14">
-        <v>0.77005456766598</v>
+        <v>0.9649080175802283</v>
       </c>
       <c r="G14">
-        <v>0.7008876875386107</v>
+        <v>0.4948864713197736</v>
       </c>
       <c r="H14">
-        <v>0.3952806754706728</v>
+        <v>0.5808132867882847</v>
       </c>
       <c r="I14">
-        <v>0.1606875618096804</v>
+        <v>0.6771825322705731</v>
       </c>
       <c r="J14">
-        <v>0.196103231428701</v>
+        <v>0.2636673217253787</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.41275894618181</v>
+        <v>0.539394572297482</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.60481156343559</v>
+        <v>1.471003899832823</v>
       </c>
       <c r="O14">
-        <v>2.266105007591619</v>
+        <v>2.112477570833647</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.672515959507905</v>
+        <v>1.292818620950698</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08646080925095667</v>
+        <v>0.271529512112755</v>
       </c>
       <c r="E15">
-        <v>0.1090540556013657</v>
+        <v>0.2273905951479911</v>
       </c>
       <c r="F15">
-        <v>0.7638239316829072</v>
+        <v>0.9641852074810089</v>
       </c>
       <c r="G15">
-        <v>0.6935813412367509</v>
+        <v>0.4934470399687996</v>
       </c>
       <c r="H15">
-        <v>0.3924154301944469</v>
+        <v>0.5805226186091232</v>
       </c>
       <c r="I15">
-        <v>0.1624666538521224</v>
+        <v>0.6783680906336871</v>
       </c>
       <c r="J15">
-        <v>0.1954412177745368</v>
+        <v>0.263515908411911</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.397444355294937</v>
+        <v>0.5347462752048955</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.596865104557395</v>
+        <v>1.468769231948556</v>
       </c>
       <c r="O15">
-        <v>2.244578809233872</v>
+        <v>2.10878753989914</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.507252583626439</v>
+        <v>1.24307396533834</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08795270401261224</v>
+        <v>0.2727830986935151</v>
       </c>
       <c r="E16">
-        <v>0.109111713440571</v>
+        <v>0.2278747314254996</v>
       </c>
       <c r="F16">
-        <v>0.7286073971097267</v>
+        <v>0.960210413621283</v>
       </c>
       <c r="G16">
-        <v>0.6521121541628929</v>
+        <v>0.4852956049048203</v>
       </c>
       <c r="H16">
-        <v>0.3762196511805058</v>
+        <v>0.5789411841918906</v>
       </c>
       <c r="I16">
-        <v>0.1729223559995674</v>
+        <v>0.68528138183567</v>
       </c>
       <c r="J16">
-        <v>0.1916626011833173</v>
+        <v>0.2626621042872159</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.309753040977881</v>
+        <v>0.5081009405782879</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.551701027341551</v>
+        <v>1.456099183495624</v>
       </c>
       <c r="O16">
-        <v>2.122535450624639</v>
+        <v>2.088021127723607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.405987321268299</v>
+        <v>1.212575849845791</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08889698178983796</v>
+        <v>0.2735729262078186</v>
       </c>
       <c r="E17">
-        <v>0.1091650232885524</v>
+        <v>0.2281861551849182</v>
       </c>
       <c r="F17">
-        <v>0.7074229276829982</v>
+        <v>0.9579213591224942</v>
       </c>
       <c r="G17">
-        <v>0.627013457992831</v>
+        <v>0.4803818161322511</v>
       </c>
       <c r="H17">
-        <v>0.3664764666978471</v>
+        <v>0.5780462723640909</v>
       </c>
       <c r="I17">
-        <v>0.1795637391276048</v>
+        <v>0.6896288957550398</v>
       </c>
       <c r="J17">
-        <v>0.1893581697017908</v>
+        <v>0.2621507996431376</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.256013348275673</v>
+        <v>0.4917485324924087</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.524319565997303</v>
+        <v>1.448448426638706</v>
       </c>
       <c r="O17">
-        <v>2.048789445720558</v>
+        <v>2.07562043607129</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.347781462948831</v>
+        <v>1.195041494513646</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08945067541686136</v>
+        <v>0.2740348655407372</v>
       </c>
       <c r="E18">
-        <v>0.1092022869470579</v>
+        <v>0.2283705944679255</v>
       </c>
       <c r="F18">
-        <v>0.6953860996713388</v>
+        <v>0.9566596552188571</v>
       </c>
       <c r="G18">
-        <v>0.612696559209752</v>
+        <v>0.4775874418199777</v>
       </c>
       <c r="H18">
-        <v>0.3609403356303602</v>
+        <v>0.5775592169595711</v>
       </c>
       <c r="I18">
-        <v>0.1834651209783167</v>
+        <v>0.6921685643369635</v>
       </c>
       <c r="J18">
-        <v>0.1880377856409297</v>
+        <v>0.2618613304589488</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.225121722382909</v>
+        <v>0.4823409701092203</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.508686753693098</v>
+        <v>1.44409295887597</v>
       </c>
       <c r="O18">
-        <v>2.006766538145683</v>
+        <v>2.068612423739353</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.32808030377231</v>
+        <v>1.189105974706592</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08963995218173082</v>
+        <v>0.2741925853678557</v>
       </c>
       <c r="E19">
-        <v>0.1092160384205236</v>
+        <v>0.2284339571427338</v>
       </c>
       <c r="F19">
-        <v>0.6913354549347872</v>
+        <v>0.9562418942524573</v>
       </c>
       <c r="G19">
-        <v>0.6078690013980719</v>
+        <v>0.4766467936867116</v>
       </c>
       <c r="H19">
-        <v>0.3590772965102218</v>
+        <v>0.5773990634487944</v>
       </c>
       <c r="I19">
-        <v>0.1847998580385766</v>
+        <v>0.6930351648978004</v>
       </c>
       <c r="J19">
-        <v>0.1875916014053658</v>
+        <v>0.2617641178983874</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.214665206496846</v>
+        <v>0.4791553956462167</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.503413422466011</v>
+        <v>1.442626032177003</v>
       </c>
       <c r="O19">
-        <v>1.992604179815828</v>
+        <v>2.066261022345714</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.416763025140028</v>
+        <v>1.215821676725625</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08879536551124811</v>
+        <v>0.273488056055597</v>
       </c>
       <c r="E20">
-        <v>0.1091586653656584</v>
+        <v>0.2281524537236752</v>
       </c>
       <c r="F20">
-        <v>0.7096626012828153</v>
+        <v>0.9581593512590274</v>
       </c>
       <c r="G20">
-        <v>0.6296727817584014</v>
+        <v>0.4809015948254398</v>
       </c>
       <c r="H20">
-        <v>0.3675065565147833</v>
+        <v>0.5781386735559408</v>
       </c>
       <c r="I20">
-        <v>0.1788482790308445</v>
+        <v>0.6891620489780306</v>
       </c>
       <c r="J20">
-        <v>0.1896029575386748</v>
+        <v>0.2622047515532842</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.261732107885933</v>
+        <v>0.4934894961006933</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.527222262826584</v>
+        <v>1.449258206285577</v>
       </c>
       <c r="O20">
-        <v>2.056598649748992</v>
+        <v>2.076927622112805</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.715223949323672</v>
+        <v>1.305667053050001</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08608469966233923</v>
+        <v>0.2712122807182702</v>
       </c>
       <c r="E21">
-        <v>0.1090447084692237</v>
+        <v>0.2272700458278507</v>
       </c>
       <c r="F21">
-        <v>0.7730512071176747</v>
+        <v>0.9652575842807067</v>
       </c>
       <c r="G21">
-        <v>0.7043985956470209</v>
+        <v>0.4955784404390471</v>
       </c>
       <c r="H21">
-        <v>0.3966587017762322</v>
+        <v>0.5809541599501955</v>
       </c>
       <c r="I21">
-        <v>0.1598391210329768</v>
+        <v>0.67661613649959</v>
       </c>
       <c r="J21">
-        <v>0.1964209504253702</v>
+        <v>0.2637401729015494</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.42010405184152</v>
+        <v>0.5416234099295991</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.608628839924165</v>
+        <v>1.472077879680597</v>
       </c>
       <c r="O21">
-        <v>2.276451368839361</v>
+        <v>2.11425375618893</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.910728677144618</v>
+        <v>1.364440831109164</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0844095269335261</v>
+        <v>0.269792849489412</v>
       </c>
       <c r="E22">
-        <v>0.1090288334290683</v>
+        <v>0.2267403326609649</v>
       </c>
       <c r="F22">
-        <v>0.8159341700463898</v>
+        <v>0.970385284232222</v>
       </c>
       <c r="G22">
-        <v>0.7544331506510531</v>
+        <v>0.5054549651185738</v>
       </c>
       <c r="H22">
-        <v>0.4163771581887801</v>
+        <v>0.5830402275581861</v>
       </c>
       <c r="I22">
-        <v>0.1481848848216254</v>
+        <v>0.6687652159247115</v>
       </c>
       <c r="J22">
-        <v>0.2009208249107104</v>
+        <v>0.2647840626410343</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.523826488551833</v>
+        <v>0.5730578535600159</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.662938616721931</v>
+        <v>1.487387798566346</v>
       </c>
       <c r="O22">
-        <v>2.424060407965243</v>
+        <v>2.139757123904985</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.806338806509302</v>
+        <v>1.333067685671836</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08529466318391776</v>
+        <v>0.2705442224136494</v>
       </c>
       <c r="E23">
-        <v>0.1090319522436332</v>
+        <v>0.2270187678288274</v>
       </c>
       <c r="F23">
-        <v>0.7929066804560279</v>
+        <v>0.9676038417672572</v>
       </c>
       <c r="G23">
-        <v>0.727612423996689</v>
+        <v>0.5001576485702373</v>
       </c>
       <c r="H23">
-        <v>0.4057890320754751</v>
+        <v>0.5819043683092389</v>
       </c>
       <c r="I23">
-        <v>0.1543323683859041</v>
+        <v>0.6729234857957636</v>
       </c>
       <c r="J23">
-        <v>0.1985151936705734</v>
+        <v>0.2642232576539101</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.468445105518271</v>
+        <v>0.5562831353635715</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.63384774495276</v>
+        <v>1.47918062716451</v>
       </c>
       <c r="O23">
-        <v>2.344898825186249</v>
+        <v>2.126044082148724</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.411891290281346</v>
+        <v>1.214354240082741</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08884127256687169</v>
+        <v>0.2735264013763441</v>
       </c>
       <c r="E24">
-        <v>0.1091615191758866</v>
+        <v>0.2281676733378788</v>
       </c>
       <c r="F24">
-        <v>0.7086496027785927</v>
+        <v>0.9580515858581435</v>
       </c>
       <c r="G24">
-        <v>0.6284701519894611</v>
+        <v>0.480666507476144</v>
       </c>
       <c r="H24">
-        <v>0.3670406500042418</v>
+        <v>0.5780968134931044</v>
       </c>
       <c r="I24">
-        <v>0.179171479990238</v>
+        <v>0.6893729851136317</v>
       </c>
       <c r="J24">
-        <v>0.1894922750390649</v>
+        <v>0.2621803459110978</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.259146644693971</v>
+        <v>0.4927024261599229</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.525909614362163</v>
+        <v>1.44889197073941</v>
       </c>
       <c r="O24">
-        <v>2.053066946145549</v>
+        <v>2.076336265424175</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.98786865684616</v>
+        <v>1.086589730606988</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09306979143616889</v>
+        <v>0.277035829836771</v>
       </c>
       <c r="E25">
-        <v>0.1095537847105632</v>
+        <v>0.2296104290391359</v>
       </c>
       <c r="F25">
-        <v>0.623349466158821</v>
+        <v>0.9498469295364202</v>
       </c>
       <c r="G25">
-        <v>0.5260178594660232</v>
+        <v>0.4608617679631664</v>
       </c>
       <c r="H25">
-        <v>0.3278087370039771</v>
+        <v>0.5750480193390644</v>
       </c>
       <c r="I25">
-        <v>0.2090546849303943</v>
+        <v>0.7086108388372634</v>
       </c>
       <c r="J25">
-        <v>0.1799539178788407</v>
+        <v>0.2601537845990904</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.034045440251077</v>
+        <v>0.4240433117470559</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.413889970322543</v>
+        <v>1.417945913309737</v>
       </c>
       <c r="O25">
-        <v>1.753125309350764</v>
+        <v>2.027479561103377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9927999675585966</v>
+        <v>1.676387420486748</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2798731287734992</v>
+        <v>0.09651890252509832</v>
       </c>
       <c r="E2">
-        <v>0.2308497643358756</v>
+        <v>0.1100608003779993</v>
       </c>
       <c r="F2">
-        <v>0.9456097004347441</v>
+        <v>0.5646536972306677</v>
       </c>
       <c r="G2">
-        <v>0.447322835736145</v>
+        <v>0.4537620120636774</v>
       </c>
       <c r="H2">
-        <v>0.5737145539869601</v>
+        <v>0.3008208197187514</v>
       </c>
       <c r="I2">
-        <v>0.7240609942466598</v>
+        <v>0.2334979530466614</v>
       </c>
       <c r="J2">
-        <v>0.2588174211701926</v>
+        <v>0.1731028297159085</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3734397509095402</v>
+        <v>0.8685644540453836</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.396665933390068</v>
+        <v>1.334834185699563</v>
       </c>
       <c r="O2">
-        <v>1.995591510310362</v>
+        <v>1.54296016588242</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9294340059196031</v>
+        <v>1.465511856430481</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2819548258911855</v>
+        <v>0.09906067279234598</v>
       </c>
       <c r="E3">
-        <v>0.2318011573563368</v>
+        <v>0.110541108228583</v>
       </c>
       <c r="F3">
-        <v>0.9438628670045546</v>
+        <v>0.5271197944096215</v>
       </c>
       <c r="G3">
-        <v>0.4387955422283625</v>
+        <v>0.4064642545169335</v>
       </c>
       <c r="H3">
-        <v>0.5733800915866851</v>
+        <v>0.2835741904708016</v>
       </c>
       <c r="I3">
-        <v>0.7353335356100101</v>
+        <v>0.2514833789260957</v>
       </c>
       <c r="J3">
-        <v>0.2580107726554104</v>
+        <v>0.1685697899321212</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3391230218221608</v>
+        <v>0.7564422206022812</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.383195247513143</v>
+        <v>1.283224555454154</v>
       </c>
       <c r="O3">
-        <v>1.976524758828361</v>
+        <v>1.40623395197386</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8906315630160009</v>
+        <v>1.336072897926698</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2833116060989109</v>
+        <v>0.1007204661189771</v>
       </c>
       <c r="E4">
-        <v>0.2324406609767831</v>
+        <v>0.1109036660211746</v>
       </c>
       <c r="F4">
-        <v>0.9433451313041274</v>
+        <v>0.505082664284572</v>
       </c>
       <c r="G4">
-        <v>0.4338788003849459</v>
+        <v>0.3781513843646707</v>
       </c>
       <c r="H4">
-        <v>0.5734558444510327</v>
+        <v>0.2734560979165508</v>
       </c>
       <c r="I4">
-        <v>0.7426503674489262</v>
+        <v>0.2631945950176984</v>
       </c>
       <c r="J4">
-        <v>0.25756497529256</v>
+        <v>0.1658417832556154</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3180450271966038</v>
+        <v>0.6875718089739564</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.375397648533379</v>
+        <v>1.252455398523225</v>
       </c>
       <c r="O4">
-        <v>1.966071819552155</v>
+        <v>1.324803374259574</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8748470234240244</v>
+        <v>1.28332692449726</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2838843084449731</v>
+        <v>0.1014215355763581</v>
       </c>
       <c r="E5">
-        <v>0.2327152342278378</v>
+        <v>0.1110684586856721</v>
       </c>
       <c r="F5">
-        <v>0.9432737251244703</v>
+        <v>0.4963422758333351</v>
       </c>
       <c r="G5">
-        <v>0.4319553854449794</v>
+        <v>0.3667834049718977</v>
       </c>
       <c r="H5">
-        <v>0.5735574789222113</v>
+        <v>0.2694454126128818</v>
       </c>
       <c r="I5">
-        <v>0.7457314432994799</v>
+        <v>0.2681303205962884</v>
       </c>
       <c r="J5">
-        <v>0.2573958593714778</v>
+        <v>0.1647441897121382</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3094544261978314</v>
+        <v>0.65949482549604</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.372339894895632</v>
+        <v>1.240141036344326</v>
       </c>
       <c r="O5">
-        <v>1.962127608151036</v>
+        <v>1.292212469754986</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8722277338304423</v>
+        <v>1.274568347290113</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2839806023770231</v>
+        <v>0.1015394320233045</v>
       </c>
       <c r="E6">
-        <v>0.2327616722542221</v>
+        <v>0.1110968531005376</v>
       </c>
       <c r="F6">
-        <v>0.9432702999396554</v>
+        <v>0.4949050408013775</v>
       </c>
       <c r="G6">
-        <v>0.4316408466794002</v>
+        <v>0.3649056341163117</v>
       </c>
       <c r="H6">
-        <v>0.5735786314959483</v>
+        <v>0.2687860666008532</v>
       </c>
       <c r="I6">
-        <v>0.7462490566679338</v>
+        <v>0.268959623547202</v>
       </c>
       <c r="J6">
-        <v>0.2573685389140365</v>
+        <v>0.164562791737211</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3080279150616008</v>
+        <v>0.6548318170141982</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.371839417710348</v>
+        <v>1.238109601056266</v>
       </c>
       <c r="O6">
-        <v>1.961491729591046</v>
+        <v>1.286835412909483</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.89041857277644</v>
+        <v>1.335361552176551</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2833192495302077</v>
+        <v>0.1007298213257695</v>
       </c>
       <c r="E7">
-        <v>0.2324443073308302</v>
+        <v>0.1109058193983152</v>
       </c>
       <c r="F7">
-        <v>0.9433436030820701</v>
+        <v>0.5049638346615097</v>
       </c>
       <c r="G7">
-        <v>0.4338525358641903</v>
+        <v>0.3779974017279102</v>
       </c>
       <c r="H7">
-        <v>0.5734569285056494</v>
+        <v>0.273401560575067</v>
       </c>
       <c r="I7">
-        <v>0.7426915174583375</v>
+        <v>0.2632605047775491</v>
       </c>
       <c r="J7">
-        <v>0.2575626435799734</v>
+        <v>0.1658269234209868</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3179291750505513</v>
+        <v>0.6871932067612647</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.375355924370851</v>
+        <v>1.252288423251017</v>
       </c>
       <c r="O7">
-        <v>1.966017349196562</v>
+        <v>1.324361494745091</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9709305649010957</v>
+        <v>1.603663981166193</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2805746044530726</v>
+        <v>0.09737458376727615</v>
       </c>
       <c r="E8">
-        <v>0.2311663499520424</v>
+        <v>0.1102123923148852</v>
       </c>
       <c r="F8">
-        <v>0.9448922705266725</v>
+        <v>0.5514941417489609</v>
       </c>
       <c r="G8">
-        <v>0.4443163837538435</v>
+        <v>0.4372943768700139</v>
       </c>
       <c r="H8">
-        <v>0.5735409302397727</v>
+        <v>0.2947726251054092</v>
       </c>
       <c r="I8">
-        <v>0.7278656746287679</v>
+        <v>0.2395577986984185</v>
       </c>
       <c r="J8">
-        <v>0.2585290804543305</v>
+        <v>0.1715284696949979</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3616092902963999</v>
+        <v>0.8299071588398022</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.391923431951057</v>
+        <v>1.316844102493761</v>
       </c>
       <c r="O8">
-        <v>1.988757041875687</v>
+        <v>1.495268706062689</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.129586050619935</v>
+        <v>2.130555720012239</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2758144296071663</v>
+        <v>0.09159256039211883</v>
       </c>
       <c r="E9">
-        <v>0.2290970707473754</v>
+        <v>0.1093878295942421</v>
       </c>
       <c r="F9">
-        <v>0.9523304038490465</v>
+        <v>0.6514000363201546</v>
       </c>
       <c r="G9">
-        <v>0.4673706183385775</v>
+        <v>0.5599916267638037</v>
       </c>
       <c r="H9">
-        <v>0.5759335330992883</v>
+        <v>0.3407095296502121</v>
       </c>
       <c r="I9">
-        <v>0.701930862926011</v>
+        <v>0.1985952963460518</v>
       </c>
       <c r="J9">
-        <v>0.260812476012191</v>
+        <v>0.1831405630217446</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4471801951866894</v>
+        <v>1.109811388295554</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.4281378078811</v>
+        <v>1.451068571101459</v>
       </c>
       <c r="O9">
-        <v>2.043301883918474</v>
+        <v>1.852368452922832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.246554971967669</v>
+        <v>2.518813279239055</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2726940099349813</v>
+        <v>0.08784639518040827</v>
       </c>
       <c r="E10">
-        <v>0.2278399150169239</v>
+        <v>0.1091065242535532</v>
       </c>
       <c r="F10">
-        <v>0.9604790488143635</v>
+        <v>0.7310451899220425</v>
       </c>
       <c r="G10">
-        <v>0.4858606267062555</v>
+        <v>0.6549926889014301</v>
       </c>
       <c r="H10">
-        <v>0.5790470482687056</v>
+        <v>0.3773408175539004</v>
       </c>
       <c r="I10">
-        <v>0.6847905990310901</v>
+        <v>0.1721757092742719</v>
       </c>
       <c r="J10">
-        <v>0.2627210711812964</v>
+        <v>0.1919262349580393</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5099665630676498</v>
+        <v>1.315887741053331</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.456978274113069</v>
+        <v>1.554841431589239</v>
       </c>
       <c r="O10">
-        <v>2.089453006822907</v>
+        <v>2.131005118157077</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.299841844120579</v>
+        <v>2.695859787285201</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2713557857629691</v>
+        <v>0.08625476477324412</v>
       </c>
       <c r="E11">
-        <v>0.2273244802582877</v>
+        <v>0.1090486744341348</v>
       </c>
       <c r="F11">
-        <v>0.9647691466894912</v>
+        <v>0.7688611414309321</v>
       </c>
       <c r="G11">
-        <v>0.494610831130359</v>
+        <v>0.6994888945736193</v>
       </c>
       <c r="H11">
-        <v>0.5807573761859572</v>
+        <v>0.3947318660754178</v>
       </c>
       <c r="I11">
-        <v>0.6774087853666346</v>
+        <v>0.1610267558719749</v>
       </c>
       <c r="J11">
-        <v>0.2636383133793387</v>
+        <v>0.1959765760427317</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.538505707629497</v>
+        <v>1.409830035793334</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.470576038623847</v>
+        <v>1.603290486630812</v>
       </c>
       <c r="O11">
-        <v>2.111770454884123</v>
+        <v>2.261983311419556</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.320029924964103</v>
+        <v>2.76297829159023</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2708606842800876</v>
+        <v>0.08566855968067966</v>
       </c>
       <c r="E12">
-        <v>0.2271373623671646</v>
+        <v>0.1090368237238355</v>
       </c>
       <c r="F12">
-        <v>0.9664775417684126</v>
+        <v>0.7834290699641144</v>
       </c>
       <c r="G12">
-        <v>0.4979731264065919</v>
+        <v>0.7165422615103552</v>
       </c>
       <c r="H12">
-        <v>0.5814472473576444</v>
+        <v>0.4014309309004744</v>
       </c>
       <c r="I12">
-        <v>0.6746732473708486</v>
+        <v>0.1569363286995005</v>
       </c>
       <c r="J12">
-        <v>0.2639925933031293</v>
+        <v>0.1975179005928567</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5493088312670125</v>
+        <v>1.445440469382532</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.475793205727939</v>
+        <v>1.621825929482696</v>
       </c>
       <c r="O12">
-        <v>2.120411784877319</v>
+        <v>2.312249579966362</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.315681663374789</v>
+        <v>2.748519565277775</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2709667953869577</v>
+        <v>0.08579406965752945</v>
       </c>
       <c r="E13">
-        <v>0.2271773036323488</v>
+        <v>0.1090389291523994</v>
       </c>
       <c r="F13">
-        <v>0.9661058807106429</v>
+        <v>0.7802802515798817</v>
       </c>
       <c r="G13">
-        <v>0.4972468258131784</v>
+        <v>0.712860131569272</v>
       </c>
       <c r="H13">
-        <v>0.5812967951391386</v>
+        <v>0.3999829739276919</v>
       </c>
       <c r="I13">
-        <v>0.6752597340259876</v>
+        <v>0.1578113239099843</v>
       </c>
       <c r="J13">
-        <v>0.2639159858268201</v>
+        <v>0.1971856157422565</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5469823768006563</v>
+        <v>1.437769362990792</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.474666583651242</v>
+        <v>1.617825422526153</v>
       </c>
       <c r="O13">
-        <v>2.1185422617923</v>
+        <v>2.30139314383328</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.301502548411861</v>
+        <v>2.701380085813412</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2713148200637967</v>
+        <v>0.08620620446878391</v>
       </c>
       <c r="E14">
-        <v>0.2273089245957358</v>
+        <v>0.1090474980808924</v>
       </c>
       <c r="F14">
-        <v>0.9649080175802283</v>
+        <v>0.7700545676659658</v>
       </c>
       <c r="G14">
-        <v>0.4948864713197736</v>
+        <v>0.700887687538625</v>
       </c>
       <c r="H14">
-        <v>0.5808132867882847</v>
+        <v>0.395280675470687</v>
       </c>
       <c r="I14">
-        <v>0.6771825322705731</v>
+        <v>0.160687561809679</v>
       </c>
       <c r="J14">
-        <v>0.2636673217253787</v>
+        <v>0.1961032314287152</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.539394572297482</v>
+        <v>1.412758946181782</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.471003899832823</v>
+        <v>1.60481156343559</v>
       </c>
       <c r="O14">
-        <v>2.112477570833647</v>
+        <v>2.266105007591648</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.292818620950698</v>
+        <v>2.672515959507791</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.271529512112755</v>
+        <v>0.08646080925113431</v>
       </c>
       <c r="E15">
-        <v>0.2273905951479911</v>
+        <v>0.1090540556013835</v>
       </c>
       <c r="F15">
-        <v>0.9641852074810089</v>
+        <v>0.7638239316829072</v>
       </c>
       <c r="G15">
-        <v>0.4934470399687996</v>
+        <v>0.6935813412367082</v>
       </c>
       <c r="H15">
-        <v>0.5805226186091232</v>
+        <v>0.3924154301944469</v>
       </c>
       <c r="I15">
-        <v>0.6783680906336871</v>
+        <v>0.1624666538521216</v>
       </c>
       <c r="J15">
-        <v>0.263515908411911</v>
+        <v>0.1954412177746576</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5347462752048955</v>
+        <v>1.397444355294965</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.468769231948556</v>
+        <v>1.596865104557452</v>
       </c>
       <c r="O15">
-        <v>2.10878753989914</v>
+        <v>2.2445788092339</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.24307396533834</v>
+        <v>2.507252583626382</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2727830986935151</v>
+        <v>0.08795270401256161</v>
       </c>
       <c r="E16">
-        <v>0.2278747314254996</v>
+        <v>0.1091117134405692</v>
       </c>
       <c r="F16">
-        <v>0.960210413621283</v>
+        <v>0.7286073971097267</v>
       </c>
       <c r="G16">
-        <v>0.4852956049048203</v>
+        <v>0.6521121541628219</v>
       </c>
       <c r="H16">
-        <v>0.5789411841918906</v>
+        <v>0.3762196511803921</v>
       </c>
       <c r="I16">
-        <v>0.68528138183567</v>
+        <v>0.1729223559995638</v>
       </c>
       <c r="J16">
-        <v>0.2626621042872159</v>
+        <v>0.1916626011832463</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5081009405782879</v>
+        <v>1.309753040977853</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.456099183495624</v>
+        <v>1.551701027341551</v>
       </c>
       <c r="O16">
-        <v>2.088021127723607</v>
+        <v>2.122535450624639</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.212575849845791</v>
+        <v>2.405987321268299</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2735729262078186</v>
+        <v>0.08889698178966743</v>
       </c>
       <c r="E17">
-        <v>0.2281861551849182</v>
+        <v>0.1091650232885542</v>
       </c>
       <c r="F17">
-        <v>0.9579213591224942</v>
+        <v>0.7074229276829982</v>
       </c>
       <c r="G17">
-        <v>0.4803818161322511</v>
+        <v>0.6270134579928168</v>
       </c>
       <c r="H17">
-        <v>0.5780462723640909</v>
+        <v>0.3664764666978471</v>
       </c>
       <c r="I17">
-        <v>0.6896288957550398</v>
+        <v>0.179563739127607</v>
       </c>
       <c r="J17">
-        <v>0.2621507996431376</v>
+        <v>0.1893581697017694</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4917485324924087</v>
+        <v>1.256013348275616</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.448448426638706</v>
+        <v>1.524319565997317</v>
       </c>
       <c r="O17">
-        <v>2.07562043607129</v>
+        <v>2.048789445720644</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.195041494513646</v>
+        <v>2.347781462949058</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2740348655407372</v>
+        <v>0.08945067541691198</v>
       </c>
       <c r="E18">
-        <v>0.2283705944679255</v>
+        <v>0.1092022869470366</v>
       </c>
       <c r="F18">
-        <v>0.9566596552188571</v>
+        <v>0.6953860996713388</v>
       </c>
       <c r="G18">
-        <v>0.4775874418199777</v>
+        <v>0.6126965592097093</v>
       </c>
       <c r="H18">
-        <v>0.5775592169595711</v>
+        <v>0.3609403356303318</v>
       </c>
       <c r="I18">
-        <v>0.6921685643369635</v>
+        <v>0.1834651209783122</v>
       </c>
       <c r="J18">
-        <v>0.2618613304589488</v>
+        <v>0.188037785640951</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4823409701092203</v>
+        <v>1.225121722382994</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.44409295887597</v>
+        <v>1.508686753693098</v>
       </c>
       <c r="O18">
-        <v>2.068612423739353</v>
+        <v>2.006766538145655</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.189105974706592</v>
+        <v>2.328080303772424</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2741925853678557</v>
+        <v>0.08963995218184628</v>
       </c>
       <c r="E19">
-        <v>0.2284339571427338</v>
+        <v>0.1092160384205236</v>
       </c>
       <c r="F19">
-        <v>0.9562418942524573</v>
+        <v>0.6913354549347872</v>
       </c>
       <c r="G19">
-        <v>0.4766467936867116</v>
+        <v>0.6078690013980719</v>
       </c>
       <c r="H19">
-        <v>0.5773990634487944</v>
+        <v>0.3590772965102218</v>
       </c>
       <c r="I19">
-        <v>0.6930351648978004</v>
+        <v>0.1847998580385726</v>
       </c>
       <c r="J19">
-        <v>0.2617641178983874</v>
+        <v>0.1875916014054155</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4791553956462167</v>
+        <v>1.214665206496903</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.442626032177003</v>
+        <v>1.503413422466011</v>
       </c>
       <c r="O19">
-        <v>2.066261022345714</v>
+        <v>1.992604179815828</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.215821676725625</v>
+        <v>2.416763025139858</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.273488056055597</v>
+        <v>0.08879536551129164</v>
       </c>
       <c r="E20">
-        <v>0.2281524537236752</v>
+        <v>0.1091586653656371</v>
       </c>
       <c r="F20">
-        <v>0.9581593512590274</v>
+        <v>0.7096626012828153</v>
       </c>
       <c r="G20">
-        <v>0.4809015948254398</v>
+        <v>0.6296727817584014</v>
       </c>
       <c r="H20">
-        <v>0.5781386735559408</v>
+        <v>0.367506556514769</v>
       </c>
       <c r="I20">
-        <v>0.6891620489780306</v>
+        <v>0.1788482790308419</v>
       </c>
       <c r="J20">
-        <v>0.2622047515532842</v>
+        <v>0.1896029575386962</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4934894961006933</v>
+        <v>1.261732107885791</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.449258206285577</v>
+        <v>1.527222262826641</v>
       </c>
       <c r="O20">
-        <v>2.076927622112805</v>
+        <v>2.056598649748992</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.305667053050001</v>
+        <v>2.715223949323672</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2712122807182702</v>
+        <v>0.08608469966245202</v>
       </c>
       <c r="E21">
-        <v>0.2272700458278507</v>
+        <v>0.1090447084692325</v>
       </c>
       <c r="F21">
-        <v>0.9652575842807067</v>
+        <v>0.7730512071177031</v>
       </c>
       <c r="G21">
-        <v>0.4955784404390471</v>
+        <v>0.7043985956470067</v>
       </c>
       <c r="H21">
-        <v>0.5809541599501955</v>
+        <v>0.3966587017761185</v>
       </c>
       <c r="I21">
-        <v>0.67661613649959</v>
+        <v>0.1598391210329737</v>
       </c>
       <c r="J21">
-        <v>0.2637401729015494</v>
+        <v>0.1964209504253276</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5416234099295991</v>
+        <v>1.420104051841406</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.472077879680597</v>
+        <v>1.608628839924165</v>
       </c>
       <c r="O21">
-        <v>2.11425375618893</v>
+        <v>2.276451368839361</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.364440831109164</v>
+        <v>2.910728677144448</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.269792849489412</v>
+        <v>0.08440952693346304</v>
       </c>
       <c r="E22">
-        <v>0.2267403326609649</v>
+        <v>0.1090288334290648</v>
       </c>
       <c r="F22">
-        <v>0.970385284232222</v>
+        <v>0.8159341700463898</v>
       </c>
       <c r="G22">
-        <v>0.5054549651185738</v>
+        <v>0.7544331506510815</v>
       </c>
       <c r="H22">
-        <v>0.5830402275581861</v>
+        <v>0.4163771581888795</v>
       </c>
       <c r="I22">
-        <v>0.6687652159247115</v>
+        <v>0.1481848848216263</v>
       </c>
       <c r="J22">
-        <v>0.2647840626410343</v>
+        <v>0.2009208249107033</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5730578535600159</v>
+        <v>1.523826488551663</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.487387798566346</v>
+        <v>1.662938616721931</v>
       </c>
       <c r="O22">
-        <v>2.139757123904985</v>
+        <v>2.424060407965186</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.333067685671836</v>
+        <v>2.806338806509359</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2705442224136494</v>
+        <v>0.08529466318408474</v>
       </c>
       <c r="E23">
-        <v>0.2270187678288274</v>
+        <v>0.1090319522436154</v>
       </c>
       <c r="F23">
-        <v>0.9676038417672572</v>
+        <v>0.7929066804560279</v>
       </c>
       <c r="G23">
-        <v>0.5001576485702373</v>
+        <v>0.727612423996689</v>
       </c>
       <c r="H23">
-        <v>0.5819043683092389</v>
+        <v>0.4057890320755746</v>
       </c>
       <c r="I23">
-        <v>0.6729234857957636</v>
+        <v>0.1543323683859135</v>
       </c>
       <c r="J23">
-        <v>0.2642232576539101</v>
+        <v>0.1985151936705591</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5562831353635715</v>
+        <v>1.468445105518327</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.47918062716451</v>
+        <v>1.633847744952732</v>
       </c>
       <c r="O23">
-        <v>2.126044082148724</v>
+        <v>2.34489882518622</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.214354240082741</v>
+        <v>2.411891290281346</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2735264013763441</v>
+        <v>0.08884127256697827</v>
       </c>
       <c r="E24">
-        <v>0.2281676733378788</v>
+        <v>0.109161519175867</v>
       </c>
       <c r="F24">
-        <v>0.9580515858581435</v>
+        <v>0.7086496027785927</v>
       </c>
       <c r="G24">
-        <v>0.480666507476144</v>
+        <v>0.6284701519894469</v>
       </c>
       <c r="H24">
-        <v>0.5780968134931044</v>
+        <v>0.3670406500042418</v>
       </c>
       <c r="I24">
-        <v>0.6893729851136317</v>
+        <v>0.1791714799902548</v>
       </c>
       <c r="J24">
-        <v>0.2621803459110978</v>
+        <v>0.1894922750391146</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4927024261599229</v>
+        <v>1.259146644693999</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.44889197073941</v>
+        <v>1.525909614362234</v>
       </c>
       <c r="O24">
-        <v>2.076336265424175</v>
+        <v>2.053066946145577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.086589730606988</v>
+        <v>1.98786865684599</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.277035829836771</v>
+        <v>0.09306979143604988</v>
       </c>
       <c r="E25">
-        <v>0.2296104290391359</v>
+        <v>0.1095537847105756</v>
       </c>
       <c r="F25">
-        <v>0.9498469295364202</v>
+        <v>0.6233494661588068</v>
       </c>
       <c r="G25">
-        <v>0.4608617679631664</v>
+        <v>0.5260178594660232</v>
       </c>
       <c r="H25">
-        <v>0.5750480193390644</v>
+        <v>0.3278087370040907</v>
       </c>
       <c r="I25">
-        <v>0.7086108388372634</v>
+        <v>0.2090546849303747</v>
       </c>
       <c r="J25">
-        <v>0.2601537845990904</v>
+        <v>0.1799539178788336</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4240433117470559</v>
+        <v>1.034045440251049</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.417945913309737</v>
+        <v>1.413889970322558</v>
       </c>
       <c r="O25">
-        <v>2.027479561103377</v>
+        <v>1.753125309350821</v>
       </c>
     </row>
   </sheetData>
